--- a/data/trans_camb/P18_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
+          <t>-7,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>84,06</t>
+          <t>-8,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,46</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,27</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>78,46</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>81,18</t>
+          <t>-1,76</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-7,38</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-6,06</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-8,0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-9,17</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; -2,63</t>
+          <t>-10,27; -2,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,35</t>
+          <t>-9,82; -2,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -4,99</t>
+          <t>-11,03; -4,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,19; 86,77</t>
+          <t>-11,86; -5,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,6; -5,25</t>
+          <t>0,11; 4,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,38; -3,1</t>
+          <t>-1,56; 2,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -6,07</t>
+          <t>-11,22; -5,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>75,18; 81,56</t>
+          <t>-9,36; -2,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -4,99</t>
+          <t>-11,48; -5,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -3,87</t>
+          <t>-13,18; -6,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -6,46</t>
+          <t>-0,39; 4,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>78,73; 83,21</t>
+          <t>-4,33; 0,72</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,84; -5,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-8,48; -3,89</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-10,49; -5,94</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-11,76; -7,07</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 3,88</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 1,08</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-57,49%</t>
+          <t>-57,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-51,12%</t>
+          <t>-53,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-70,23%</t>
+          <t>-66,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>755,39%</t>
+          <t>-73,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-61,08%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,24%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-63,04%</t>
+          <t>-59,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>566,45%</t>
+          <t>-45,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-59,53%</t>
+          <t>-62,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-47,64%</t>
+          <t>-73,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-66,05%</t>
+          <t>59,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>647,17%</t>
+          <t>-22,88%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-58,87%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-48,33%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-63,78%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-73,09%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>67,66%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-9,74%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,32; -20,3</t>
+          <t>-75,88; -12,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,13; -20,75</t>
+          <t>-71,79; -26,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,25; -52,26</t>
+          <t>-80,49; -40,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>540,44; 967,98</t>
+          <t>-85,1; -53,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,22; -42,89</t>
+          <t>0,08; 233,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,05; -26,34</t>
+          <t>-26,5; 80,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,69; -48,39</t>
+          <t>-71,92; -40,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>452,11; 691,49</t>
+          <t>-60,32; -23,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,91; -41,91</t>
+          <t>-72,56; -45,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-58,67; -32,65</t>
+          <t>-83,81; -54,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-75,03; -55,68</t>
+          <t>-10,21; 180,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>540,21; 769,95</t>
+          <t>-48,27; 11,74</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-71,1; -41,27</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-60,15; -32,84</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-73,15; -52,05</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-81,8; -59,5</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 157,09</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-34,07; 19,33</t>
         </is>
       </c>
     </row>
@@ -932,12 +1100,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -947,47 +1115,77 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83,88</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>82,74</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>83,26</t>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-7,2</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-5,86</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-6,92</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-6,87</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -4,13</t>
+          <t>-10,98; -4,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -2,44</t>
+          <t>-10,13; -3,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -4,17</t>
+          <t>-11,18; -4,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,58; 87,53</t>
+          <t>-9,67; -1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,22; -3,34</t>
+          <t>-2,5; 3,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -2,14</t>
+          <t>-5,24; 3,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -3,85</t>
+          <t>-10,51; -2,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,29; 86,44</t>
+          <t>-8,79; -2,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; -4,83</t>
+          <t>-9,89; -1,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -3,44</t>
+          <t>-11,35; -5,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-9,62; -4,95</t>
+          <t>-2,56; 3,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>80,08; 85,97</t>
+          <t>-4,83; 3,75</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-9,65; -4,98</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; -3,34</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; -4,34</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-9,37; -4,44</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 2,89</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 1,89</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-74,96%</t>
+          <t>-75,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-60,57%</t>
+          <t>-63,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-72,2%</t>
+          <t>-72,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>854,57%</t>
+          <t>-55,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-56,25%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-43,82%</t>
+          <t>-20,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-57,92%</t>
+          <t>-56,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>664,45%</t>
+          <t>-44,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-64,46%</t>
+          <t>-54,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-51,25%</t>
+          <t>-66,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-64,23%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>747,14%</t>
+          <t>-4,85%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-64,61%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-52,63%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-62,12%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-61,6%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-13,94%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-87,59; -49,81</t>
+          <t>-88,72; -50,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,48; -28,55</t>
+          <t>-78,78; -38,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-84,86; -51,06</t>
+          <t>-85,75; -50,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>600,87; 1209,76</t>
+          <t>-76,95; -20,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,21; -29,62</t>
+          <t>-44,76; 157,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,61; -19,29</t>
+          <t>-61,91; 78,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-75,01; -34,15</t>
+          <t>-73,01; -25,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>529,1; 865,09</t>
+          <t>-61,67; -20,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-76,66; -44,38</t>
+          <t>-71,31; -12,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-65,6; -34,18</t>
+          <t>-79,11; -45,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-75,01; -47,25</t>
+          <t>-48,57; 123,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>607,81; 916,04</t>
+          <t>-61,95; 147,31</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-76,1; -45,81</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-64,83; -34,37</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-73,45; -41,91</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-73,78; -42,96</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-33,14; 89,31</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-51,29; 47,75</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,3</t>
+          <t>-11,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-7,14</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-7,97</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-9,3</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-10,14</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-9,63</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-4,59</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-8,27</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-9,52</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-4,22</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-8,19</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-8,62</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -6,14</t>
+          <t>-17,8; -5,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 0,24</t>
+          <t>-12,91; 0,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -0,4</t>
+          <t>-14,07; -0,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-13,82; 0,28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,34; -1,52</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 4,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,18; -4,29</t>
+          <t>-14,42; -1,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-8,87; 4,55</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,67; -4,08</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-16,22; -4,52</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-14,1; -5,05</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-9,95; 0,35</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; -4,18</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-13,8; -5,38</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-8,91; 0,83</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-12,44; -4,15</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-12,9; -4,28</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-88,85%</t>
+          <t>-88,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-47,7%</t>
+          <t>-45,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-56,48%</t>
+          <t>-55,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-56,12%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-62,66%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-73,77%</t>
+          <t>-61,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-21,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-73,09%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-79,65%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-75,72%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-36,06%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-65,0%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-74,83%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-33,16%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-64,35%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-67,74%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -52,15</t>
+          <t>-100,0; -46,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,91; 11,78</t>
+          <t>-74,75; 15,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,28; 2,1</t>
+          <t>-81,8; -3,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-84,21; 12,7</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-86,9; -8,1</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 50,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-90,53; -30,67</t>
+          <t>-85,46; 1,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-56,97; 52,87</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-90,94; -34,43</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-94,76; -28,67</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-89,39; -45,83</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-63,08; 3,29</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-80,27; -37,29</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-88,91; -46,69</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-58,71; 9,63</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-79,7; -32,59</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-85,65; -34,52</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>84,04</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>79,76</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,6</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-9,41</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>81,87</t>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-7,56</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-5,76</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-7,59</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-8,19</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -4,92</t>
+          <t>-9,9; -4,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -3,53</t>
+          <t>-8,44; -3,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -5,41</t>
+          <t>-9,8; -5,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81,08; 86,22</t>
+          <t>-9,38; -4,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,13; -5,69</t>
+          <t>-0,66; 3,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -3,4</t>
+          <t>-2,01; 2,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -6,1</t>
+          <t>-10,04; -5,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>76,98; 81,93</t>
+          <t>-7,66; -3,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -6,04</t>
+          <t>-9,92; -5,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -4,1</t>
+          <t>-11,34; -7,38</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -6,23</t>
+          <t>-0,09; 3,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>80,13; 83,51</t>
+          <t>-3,74; 0,9</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; -6,01</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; -4,32</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-9,22; -6,09</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; -6,7</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 3,05</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 0,88</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-68,28%</t>
+          <t>-68,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-54,04%</t>
+          <t>-55,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-68,95%</t>
+          <t>-66,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>778,49%</t>
+          <t>-64,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-59,46%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-42,35%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-62,33%</t>
+          <t>-58,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>605,41%</t>
+          <t>-41,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-63,3%</t>
+          <t>-60,41%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-47,46%</t>
+          <t>-71,43%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-65,24%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>681,69%</t>
+          <t>-20,32%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-62,91%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-47,95%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-63,23%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-68,22%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>43,12%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-10,67%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-80,05; -49,34</t>
+          <t>-79,69; -46,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,61; -36,01</t>
+          <t>-67,23; -39,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,14; -57,52</t>
+          <t>-77,04; -53,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>620,43; 932,9</t>
+          <t>-75,57; -47,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-69,66; -45,95</t>
+          <t>-14,15; 120,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,11; -28,78</t>
+          <t>-34,29; 52,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,52; -50,3</t>
+          <t>-68,69; -43,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>518,63; 709,85</t>
+          <t>-52,96; -28,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-71,08; -53,18</t>
+          <t>-69,31; -47,09</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-56,47; -36,56</t>
+          <t>-79,46; -60,4</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-71,65; -57,19</t>
+          <t>-4,13; 130,61</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>601,3; 773,19</t>
+          <t>-45,09; 16,5</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-71,28; -53,17</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-56,76; -38,77</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-70,28; -54,13</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-75,21; -59,49</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 90,24</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-32,63; 16,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
